--- a/file.xlsx
+++ b/file.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hayashi\Documents\keiichiro\fromMac\checkout\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9578BA1B-62C0-4CB5-B1BB-6BFCADBBF5D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1D569CD-305F-4F7A-B6A1-679E4E8BA6D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="34">
   <si>
     <t>メールアドレス</t>
   </si>
@@ -65,13 +66,134 @@
   </si>
   <si>
     <t>09009000900</t>
+  </si>
+  <si>
+    <t>初学1</t>
+    <rPh sb="0" eb="1">
+      <t>ハツ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ガク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>経験1</t>
+    <rPh sb="0" eb="2">
+      <t>ケイケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>初学2</t>
+    <rPh sb="0" eb="1">
+      <t>ハツ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ガク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>経験2</t>
+    <rPh sb="0" eb="2">
+      <t>ケイケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>目視外</t>
+    <rPh sb="0" eb="2">
+      <t>モクシ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ガイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>夜間</t>
+    <rPh sb="0" eb="2">
+      <t>ヤカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>修了証明書番号</t>
+    <rPh sb="0" eb="7">
+      <t>シュウリョウショウメイショバンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>発行日</t>
+    <rPh sb="0" eb="3">
+      <t>ハッコウビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TC026323050001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>更新日</t>
+    <rPh sb="0" eb="3">
+      <t>コウシンビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>技能証明書番号</t>
+    <rPh sb="0" eb="4">
+      <t>ギノウショウメイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ショ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TC026323050002</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TC026323050005</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TC026323050006</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TC026323050004</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TC026323050003</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前(姓)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前(名)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>example@gmail.com</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -82,6 +204,15 @@
     </font>
     <font>
       <sz val="6"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
@@ -105,17 +236,27 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -430,8 +571,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="A1:I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -498,4 +639,378 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C869B29C-8035-4C23-B44D-505659DC5F0E}">
+  <dimension ref="A1:P7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="14" max="15" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K2" t="b">
+        <v>1</v>
+      </c>
+      <c r="L2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" s="1">
+        <v>45073</v>
+      </c>
+      <c r="O2" s="1">
+        <v>45438</v>
+      </c>
+      <c r="P2">
+        <v>2305000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K3" t="b">
+        <v>1</v>
+      </c>
+      <c r="L3" t="b">
+        <v>1</v>
+      </c>
+      <c r="M3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N3" s="1">
+        <v>45073</v>
+      </c>
+      <c r="O3" s="1">
+        <v>45438</v>
+      </c>
+      <c r="P3">
+        <v>2305000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K4" t="b">
+        <v>0</v>
+      </c>
+      <c r="L4" t="b">
+        <v>0</v>
+      </c>
+      <c r="M4" t="s">
+        <v>30</v>
+      </c>
+      <c r="N4" s="1">
+        <v>45073</v>
+      </c>
+      <c r="O4" s="1">
+        <v>45438</v>
+      </c>
+      <c r="P4">
+        <v>2305000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K5" t="b">
+        <v>1</v>
+      </c>
+      <c r="L5" t="b">
+        <v>1</v>
+      </c>
+      <c r="M5" t="s">
+        <v>29</v>
+      </c>
+      <c r="N5" s="1">
+        <v>45073</v>
+      </c>
+      <c r="O5" s="1">
+        <v>45438</v>
+      </c>
+      <c r="P5">
+        <v>2305000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K6" t="b">
+        <v>1</v>
+      </c>
+      <c r="L6" t="b">
+        <v>0</v>
+      </c>
+      <c r="M6" t="s">
+        <v>27</v>
+      </c>
+      <c r="N6" s="1">
+        <v>45073</v>
+      </c>
+      <c r="O6" s="1">
+        <v>45438</v>
+      </c>
+      <c r="P6">
+        <v>2305000005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="b">
+        <v>1</v>
+      </c>
+      <c r="J7" t="b">
+        <v>0</v>
+      </c>
+      <c r="K7" t="b">
+        <v>0</v>
+      </c>
+      <c r="L7" t="b">
+        <v>1</v>
+      </c>
+      <c r="M7" t="s">
+        <v>28</v>
+      </c>
+      <c r="N7" s="1">
+        <v>45073</v>
+      </c>
+      <c r="O7" s="1">
+        <v>45438</v>
+      </c>
+      <c r="P7">
+        <v>2305000006</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{DED370A4-8017-4D3A-BE95-202B08E60019}"/>
+    <hyperlink ref="A3:A7" r:id="rId2" display="example@gmail.com" xr:uid="{1AD09862-9C5E-411B-8F49-DB719B9771C5}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>